--- a/biology/Histoire de la zoologie et de la botanique/Percy_Roycroft_Lowe/Percy_Roycroft_Lowe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Percy_Roycroft_Lowe/Percy_Roycroft_Lowe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Percy Roycroft Lowe est un chirurgien et un ornithologue britannique, né le 2 janvier 1870 à Stamford dans le Lincolnshire et mort le 18 août 1948.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine au Jesus College à Cambridge. Il sert comme chirurgien civil durant la seconde guerre des Boers. C’est durant son séjour en Afrique du Sud qu’il commence à s’intéresser à l’ornithologie. À son retour en Grande-Bretagne, il devient le médecin personnel de Sir Frederic Johnstone. Durant la Première Guerre mondiale, il sert comme officier médical sur un bateau hôpital en Méditerranée. En novembre 1919, il succède à William Robert Ogilvie-Grant (1863-1924) comme conservateur des oiseaux au Natural History Museum de Londres. Il abandonne cette fonction à son soixante-cinq anniversaire en 1935. Il est remplacé par Sir Norman Boyd Kinnear (1882-1957).
 Lowe dirige la British Ornithologists' Union de 1938 à 1943 et devient membre correspondant de la Royal Australasian Ornithologists Union.
